--- a/data/all_city_plusmetro_commute_times_acs2013_5yr_B08134_16000US3658442_formatted_CSV.xlsx
+++ b/data/all_city_plusmetro_commute_times_acs2013_5yr_B08134_16000US3658442_formatted_CSV.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="all_city_plusmetro_commute_time" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1476,11 +1476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75022336"/>
-        <c:axId val="74953088"/>
+        <c:axId val="101938304"/>
+        <c:axId val="101939840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75022336"/>
+        <c:axId val="101938304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,12 +1490,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74953088"/>
+        <c:crossAx val="101939840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74953088"/>
+        <c:axId val="101939840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75022336"/>
+        <c:crossAx val="101938304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2196,11 +2196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113579520"/>
-        <c:axId val="113581056"/>
+        <c:axId val="102027264"/>
+        <c:axId val="102028800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113579520"/>
+        <c:axId val="102027264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,12 +2210,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113581056"/>
+        <c:crossAx val="102028800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113581056"/>
+        <c:axId val="102028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113579520"/>
+        <c:crossAx val="102027264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2327,6 +2327,501 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>total</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$F$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>405710</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>346700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>613926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>drove</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$AC$2:$AK$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>299261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>391081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>391927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>carpool</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$AN$2:$AV$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>bus</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$CF$2:$CN$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>street car</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$F$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_city_plusmetro_commute_time!$CQ$2:$CY$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125389824"/>
+        <c:axId val="125388288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125389824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125388288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125388288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125389824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2429,6 +2924,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2726,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:I74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10257,31 +10782,69 @@
     </row>
     <row r="23" spans="1:136" x14ac:dyDescent="0.25">
       <c r="F23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N23">
-        <v>60</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:136" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>F23*F2</f>
+        <v>4057100</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:L24" si="0">G23*G2</f>
+        <v>6583192</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>9053956</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>11780496</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>5770014</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>17434656</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>11877096</v>
+      </c>
+      <c r="M24">
+        <f>M23*M2</f>
+        <v>16988300</v>
+      </c>
+      <c r="N24">
+        <f>N23*N2</f>
+        <v>46044450</v>
       </c>
     </row>
     <row r="26" spans="1:136" x14ac:dyDescent="0.25">
@@ -10682,39 +11245,39 @@
         <v>125317</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:K41" si="0">SUM(C29:C32)</f>
+        <f t="shared" ref="C41:K41" si="1">SUM(C29:C32)</f>
         <v>768858</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>177297</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>233647</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>427220</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125930</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137447</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107544</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>247306</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1017302</v>
       </c>
       <c r="M41" t="s">
@@ -10730,39 +11293,39 @@
         <v>0.42064824076746982</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:K42" si="1">C41/C27</f>
+        <f t="shared" ref="C42:K42" si="2">C41/C27</f>
         <v>0.46730991895021229</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42638432956964034</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54318321306353223</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36906559591973542</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49231791704132294</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44232155499774733</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54917300297708715</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42172810537319388</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28634849666631107</v>
       </c>
       <c r="M42" s="3">
@@ -10783,39 +11346,39 @@
         <v>113469</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:K43" si="2">SUM(C33:C35)</f>
+        <f t="shared" ref="C43:K43" si="3">SUM(C33:C35)</f>
         <v>539196</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144796</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137018</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>401782</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78290</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110306</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60752</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191275</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1121218</v>
       </c>
       <c r="M43" s="3"/>
@@ -10827,47 +11390,47 @@
         <v>0.38087837429593774</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:K44" si="3">C43/C27</f>
+        <f t="shared" ref="C44:K44" si="4">C43/C27</f>
         <v>0.32772194483022699</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34822216610752377</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31853983782175271</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34709028898418415</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30607138668438955</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35497843856600375</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31022984338376847</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3261790791782555</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31559860172810822</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" ref="M44:M46" si="4">MIN(B44:K44)</f>
+        <f t="shared" ref="M44:M46" si="5">MIN(B44:K44)</f>
         <v>0.30607138668438955</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" ref="N44:N46" si="5">MAX(B44:K44)</f>
+        <f t="shared" ref="N44:N46" si="6">MAX(B44:K44)</f>
         <v>0.38087837429593774</v>
       </c>
     </row>
@@ -10876,43 +11439,43 @@
         <v>67</v>
       </c>
       <c r="B45">
-        <f>SUM(B36:B37)</f>
+        <f t="shared" ref="B45:K45" si="7">SUM(B36:B37)</f>
         <v>59128</v>
       </c>
       <c r="C45">
-        <f>SUM(C36:C37)</f>
+        <f t="shared" si="7"/>
         <v>337231</v>
       </c>
       <c r="D45">
-        <f>SUM(D36:D37)</f>
+        <f t="shared" si="7"/>
         <v>93722</v>
       </c>
       <c r="E45">
-        <f>SUM(E36:E37)</f>
+        <f t="shared" si="7"/>
         <v>59479</v>
       </c>
       <c r="F45">
-        <f>SUM(F36:F37)</f>
+        <f t="shared" si="7"/>
         <v>328570</v>
       </c>
       <c r="G45">
-        <f>SUM(G36:G37)</f>
+        <f t="shared" si="7"/>
         <v>51570</v>
       </c>
       <c r="H45">
-        <f>SUM(H36:H37)</f>
+        <f t="shared" si="7"/>
         <v>62987</v>
       </c>
       <c r="I45">
-        <f>SUM(I36:I37)</f>
+        <f t="shared" si="7"/>
         <v>27533</v>
       </c>
       <c r="J45">
-        <f>SUM(J36:J37)</f>
+        <f t="shared" si="7"/>
         <v>147830</v>
       </c>
       <c r="K45">
-        <f>SUM(K36:K37)</f>
+        <f t="shared" si="7"/>
         <v>1414151</v>
       </c>
       <c r="M45" s="3"/>
@@ -10927,47 +11490,47 @@
         <v>0.19847338493659245</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:K46" si="6">C45/C27</f>
+        <f t="shared" ref="C46:K46" si="8">C45/C27</f>
         <v>0.20496813621956075</v>
       </c>
       <c r="D46">
+        <f t="shared" si="8"/>
+        <v>0.22539350432283586</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="8"/>
+        <v>0.13827694911471508</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>0.28384411509608043</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="8"/>
+        <v>0.20161069627428752</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="8"/>
+        <v>0.20270000643624894</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>0.14059715363914435</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>0.25209281544855061</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="8"/>
+        <v>0.39805290160558071</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13827694911471508</v>
+      </c>
+      <c r="N46" s="2">
         <f t="shared" si="6"/>
-        <v>0.22539350432283586</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="6"/>
-        <v>0.13827694911471508</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="6"/>
-        <v>0.28384411509608043</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="6"/>
-        <v>0.20161069627428752</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="6"/>
-        <v>0.20270000643624894</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="6"/>
-        <v>0.14059715363914435</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="6"/>
-        <v>0.25209281544855061</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="6"/>
-        <v>0.39805290160558071</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" si="4"/>
-        <v>0.13827694911471508</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="5"/>
         <v>0.39805290160558071</v>
       </c>
     </row>
@@ -10978,379 +11541,379 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>B29/B$27</f>
+        <f t="shared" ref="B49:K49" si="9">B29/B$27</f>
         <v>5.5932248904046133E-2</v>
       </c>
       <c r="C49">
-        <f>C29/C$27</f>
+        <f t="shared" si="9"/>
         <v>7.3662617722765361E-2</v>
       </c>
       <c r="D49">
-        <f>D29/D$27</f>
+        <f t="shared" si="9"/>
         <v>4.9293556028522298E-2</v>
       </c>
       <c r="E49">
-        <f>E29/E$27</f>
+        <f t="shared" si="9"/>
         <v>7.0601937955661359E-2</v>
       </c>
       <c r="F49">
-        <f>F29/F$27</f>
+        <f t="shared" si="9"/>
         <v>5.3302947894385833E-2</v>
       </c>
       <c r="G49">
-        <f>G29/G$27</f>
+        <f t="shared" si="9"/>
         <v>6.8603151022323006E-2</v>
       </c>
       <c r="H49">
-        <f>H29/H$27</f>
+        <f t="shared" si="9"/>
         <v>8.0076591362553906E-2</v>
       </c>
       <c r="I49">
-        <f>I29/I$27</f>
+        <f t="shared" si="9"/>
         <v>7.3901209728896133E-2</v>
       </c>
       <c r="J49">
-        <f>J29/J$27</f>
+        <f t="shared" si="9"/>
         <v>6.3863058503336401E-2</v>
       </c>
       <c r="K49">
-        <f>K29/K$27</f>
+        <f t="shared" si="9"/>
         <v>4.4764347725978565E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" ref="B50:K50" si="7">B30/B$27</f>
+        <f t="shared" ref="B50:K50" si="10">B30/B$27</f>
         <v>7.7304188457071502E-2</v>
       </c>
       <c r="C50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10789559255691263</v>
       </c>
       <c r="D50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.6661135360677224E-2</v>
       </c>
       <c r="E50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11287382829936021</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.1112017222254862E-2</v>
       </c>
       <c r="G50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.10216192970796356</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.5497843856600373E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11779154262136864</v>
       </c>
       <c r="J50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.9328133339927118E-2</v>
       </c>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.0855621024294114E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" ref="B51:K51" si="8">B31/B$27</f>
+        <f t="shared" ref="B51:K51" si="11">B31/B$27</f>
         <v>0.12578797908121137</v>
       </c>
       <c r="C51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.13886773416155865</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.1361062010749973</v>
       </c>
       <c r="E51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.16956182115756585</v>
       </c>
       <c r="F51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.10154184793688859</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.15281285429453847</v>
       </c>
       <c r="H51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12419385981849777</v>
       </c>
       <c r="I51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.16981141710369763</v>
       </c>
       <c r="J51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.12160754146835581</v>
       </c>
       <c r="K51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.8704726669032957E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" ref="B52:K52" si="9">B32/B$27</f>
+        <f t="shared" ref="B52:K52" si="12">B32/B$27</f>
         <v>0.1616238243251408</v>
       </c>
       <c r="C52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14688397450897564</v>
       </c>
       <c r="D52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.15432343710544352</v>
       </c>
       <c r="E52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.19014562565094481</v>
       </c>
       <c r="F52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.13310878286620617</v>
       </c>
       <c r="G52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.1687399820164979</v>
       </c>
       <c r="H52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14255325996009527</v>
       </c>
       <c r="I52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.18766883352312477</v>
       </c>
       <c r="J52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14692937206157455</v>
       </c>
       <c r="K52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.10202380124700543</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" ref="B53:K53" si="10">B33/B$27</f>
+        <f t="shared" ref="B53:K53" si="13">B33/B$27</f>
         <v>7.3037856562632175E-2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.534542647626399E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.5923547731563309E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.2798876655259637E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.3264073422646711E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.6382579459713043E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.682113664156529E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.6485096691501261E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.5866960203679671E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.2906872040782834E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" ref="B54:K54" si="11">B34/B$27</f>
+        <f t="shared" ref="B54:K54" si="14">B34/B$27</f>
         <v>0.20698926535845916</v>
       </c>
       <c r="C54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.19593748195601371</v>
       </c>
       <c r="D54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.19900436492190035</v>
       </c>
       <c r="E54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.17950035337003423</v>
       </c>
       <c r="F54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.19409505413054221</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.17545642910199774</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.19612216000514901</v>
       </c>
       <c r="I54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.17735371165659836</v>
       </c>
       <c r="J54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.18677002989370936</v>
       </c>
       <c r="K54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.17381992309448299</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" ref="B55:K55" si="12">B35/B$27</f>
+        <f t="shared" ref="B55:K55" si="15">B35/B$27</f>
         <v>0.10085125237484643</v>
       </c>
       <c r="C55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.6439036397949287E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.3294253454060094E-2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.6240607796458864E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.9731161430995224E-2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.4232378122678763E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.2035141919289437E-2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.6391035035668877E-2</v>
       </c>
       <c r="J55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.3542089080866494E-2</v>
       </c>
       <c r="K55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.8871806592842393E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" ref="B56:K56" si="13">B36/B$27</f>
+        <f t="shared" ref="B56:K56" si="16">B36/B$27</f>
         <v>0.10549688836375598</v>
       </c>
       <c r="C56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.3396584786222453E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.11352644805983431</v>
       </c>
       <c r="E56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.8907156673114117E-2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1374195298435</v>
       </c>
       <c r="G56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.5518980413620554E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.10662933642273283</v>
       </c>
       <c r="I56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.3938436084543152E-2</v>
       </c>
       <c r="J56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.12337592575855501</v>
       </c>
       <c r="K56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.15345271205805436</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" ref="B57:K57" si="14">B37/B$27</f>
+        <f t="shared" ref="B57:K57" si="17">B37/B$27</f>
         <v>9.2976496572836451E-2</v>
       </c>
       <c r="C57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.1115715514333383</v>
       </c>
       <c r="D57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.11186705626300157</v>
       </c>
       <c r="E57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.936979244160095E-2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.1464245852525804</v>
       </c>
       <c r="G57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12609171586066695</v>
       </c>
       <c r="H57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.607067001351613E-2</v>
       </c>
       <c r="I57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.6658717554601213E-2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12871688968999559</v>
       </c>
       <c r="K57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.24460018954752635</v>
       </c>
     </row>
@@ -11682,271 +12245,271 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75">
-        <f t="shared" ref="C75:C83" si="15">C63/B63</f>
+        <f t="shared" ref="C75:C83" si="18">C63/B63</f>
         <v>0.71073886894975646</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D83" si="16">D63/B63</f>
+        <f t="shared" ref="D75:D83" si="19">D63/B63</f>
         <v>0.10705379311183169</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:E83" si="17">E63/B63</f>
+        <f t="shared" ref="E75:E83" si="20">E63/B63</f>
         <v>0.10818368854028329</v>
       </c>
       <c r="F75">
-        <f t="shared" ref="F75:F83" si="18">F63/B63</f>
+        <f t="shared" ref="F75:F83" si="21">F63/B63</f>
         <v>6.9878470903217372E-3</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75:G83" si="19">G63/B63</f>
+        <f t="shared" ref="G75:G83" si="22">G63/B63</f>
         <v>1.3851703504256102E-3</v>
       </c>
       <c r="H75">
-        <f t="shared" ref="H75:H83" si="20">H63/B63</f>
+        <f t="shared" ref="H75:H83" si="23">H63/B63</f>
         <v>3.8861352288509288E-2</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I83" si="21">I63/B63</f>
+        <f t="shared" ref="I75:I83" si="24">I63/B63</f>
         <v>2.6789279668871957E-2</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.39832858362492934</v>
       </c>
       <c r="D76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8.0776306771040002E-2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.24076332022654306</v>
       </c>
       <c r="F76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9.7134543005904073E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2890347871048423E-2</v>
       </c>
       <c r="H76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.10842081214001419</v>
       </c>
       <c r="I76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6.1686086360520906E-2</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.80604402246689477</v>
       </c>
       <c r="D77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.11750483558994197</v>
       </c>
       <c r="E77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.4628961464067848E-2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4.4171254277637255E-3</v>
       </c>
       <c r="G77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7.3765994643654222E-3</v>
       </c>
       <c r="H77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7501115905371224E-2</v>
       </c>
       <c r="I77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2527339681595E-2</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.52570812009965684</v>
       </c>
       <c r="D78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9.682335094490882E-2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.14602461013224233</v>
       </c>
       <c r="F78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.11448704702601653</v>
       </c>
       <c r="G78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8922365088305523E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.8743888069165454E-2</v>
       </c>
       <c r="I78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.9290618639704485E-2</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.62212752648657099</v>
       </c>
       <c r="D79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10345986942413699</v>
       </c>
       <c r="E79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.15497869345947848</v>
       </c>
       <c r="F79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6970952734665156E-2</v>
       </c>
       <c r="G79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1536807537433051E-2</v>
       </c>
       <c r="H79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6.7934633879354153E-2</v>
       </c>
       <c r="I79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.2991516478361156E-2</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.39747055416103494</v>
       </c>
       <c r="D80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7.2269421381219029E-2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.13658363905515866</v>
       </c>
       <c r="F80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.19611894188067194</v>
       </c>
       <c r="G80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2843534787925596E-2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.15740168629722598</v>
       </c>
       <c r="I80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.7312222436763855E-2</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.72347303004151586</v>
       </c>
       <c r="D81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12851007766980377</v>
       </c>
       <c r="E81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8.8199398454774314E-2</v>
       </c>
       <c r="F81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4757773363495703E-3</v>
       </c>
       <c r="G81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3.4821196043486921E-2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.3520520454069622E-2</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.52019488038253037</v>
       </c>
       <c r="D82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9.0547414697200429E-2</v>
       </c>
       <c r="E82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.18873793295146238</v>
       </c>
       <c r="F82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5.1289965570222931E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.9221825647881776E-2</v>
       </c>
       <c r="H82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8.812419958015795E-2</v>
       </c>
       <c r="I82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3.1883781170544211E-2</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.23362928906166655</v>
       </c>
       <c r="D83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5.1158691587259275E-2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.12205689747235249</v>
       </c>
       <c r="F83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.43968214337888312</v>
       </c>
       <c r="G83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0226190379013423E-2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.10631381290302423</v>
       </c>
       <c r="I83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.6932975217800918E-2</v>
       </c>
     </row>
